--- a/Task_6/ndgc_calc.xlsx
+++ b/Task_6/ndgc_calc.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mvideo\Dropbox\Edu\Semestr_M3\Information Retrieval\Task_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\Edu\Semestr_M3\Information Retrieval\Task_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C44E3-B8AB-4E84-A73D-A16D58207902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="7110"/>
+    <workbookView xWindow="3105" yWindow="4800" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,15 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,19 +521,19 @@
         <v>5.2618595071429146</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F7" si="1">E4/(LOG(A4+1,2))</f>
-        <v>1.8927892607143721</v>
+        <v>2.5237190142858297</v>
       </c>
       <c r="G4">
         <f>SUM(F$3:F4)</f>
-        <v>5.8927892607143724</v>
+        <v>6.5237190142858292</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H8" si="2">D4/G4</f>
-        <v>0.89293189936763984</v>
+        <v>0.80657359638272919</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -534,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L8" si="3">K4/(LOG(J4+1,2))</f>
+        <f t="shared" ref="L4:L12" si="3">K4/(LOG(J4+1,2))</f>
         <v>1.2618595071429148</v>
       </c>
       <c r="M4">
@@ -553,7 +561,7 @@
         <v>6.5237190142858292</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q8" si="5">M4/P4</f>
+        <f t="shared" ref="Q4:Q12" si="5">M4/P4</f>
         <v>0.65328679819136459</v>
       </c>
     </row>
@@ -573,19 +581,19 @@
         <v>6.7618595071429146</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <f>SUM(F$3:F5)</f>
-        <v>6.8927892607143724</v>
+        <v>8.5237190142858292</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.98100482277650713</v>
+        <v>0.7932992037642228</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -633,19 +641,19 @@
         <v>7.1925360652163075</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.86135311614678611</v>
+        <v>1.7227062322935722</v>
       </c>
       <c r="G6">
         <f>SUM(F$3:F6)</f>
-        <v>7.7541423768611581</v>
+        <v>10.246425246579401</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>0.92757338151015656</v>
+        <v>0.7019556471772842</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -662,19 +670,19 @@
         <v>7.9845657394364871</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>1.2920296742201793</v>
+        <v>1.7227062322935722</v>
       </c>
       <c r="P6">
         <f>SUM(O$3:O6)</f>
-        <v>9.8157486885060088</v>
+        <v>10.246425246579401</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>0.81344439357806808</v>
+        <v>0.7792537931316097</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -693,19 +701,19 @@
         <v>7.9662416796853908</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.38685280723454163</v>
+        <v>1.5474112289381665</v>
       </c>
       <c r="G7">
         <f>SUM(F$3:F7)</f>
-        <v>8.1409951840957007</v>
+        <v>11.793836475517567</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.97853413489892371</v>
+        <v>0.67545804083533345</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -722,19 +730,19 @@
         <v>9.5319769683746536</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <f t="shared" si="4"/>
-        <v>0.77370561446908326</v>
+        <v>1.5474112289381665</v>
       </c>
       <c r="P7">
         <f>SUM(O$3:O7)</f>
-        <v>10.589454302975092</v>
+        <v>11.793836475517567</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>0.90013863752135537</v>
+        <v>0.80821681631433229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -756,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F4:F8" si="6">E8/(LOG(D8+1,2))</f>
+        <f t="shared" ref="F8" si="6">E8/(LOG(D8+1,2))</f>
         <v>0</v>
       </c>
       <c r="G8">
         <f>SUM(F$3:F8)</f>
-        <v>8.1409951840957007</v>
+        <v>11.793836475517567</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
-        <v>0.97853413489892371</v>
+        <v>0.67545804083533345</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -785,20 +793,32 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8" si="7">N8/(LOG(M8+1,2))</f>
+        <f t="shared" ref="O8:O12" si="7">N8/(LOG(M8+1,2))</f>
         <v>0</v>
       </c>
       <c r="P8">
         <f>SUM(O$3:O8)</f>
-        <v>10.589454302975092</v>
+        <v>11.793836475517567</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="5"/>
-        <v>0.90013863752135537</v>
-      </c>
+        <v>0.80821681631433229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="E3:E8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E8">
     <sortCondition descending="1" ref="E3:E8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
